--- a/user-data/kenya-measles-vaccine/kenya-measles-vaccine.xlsx
+++ b/user-data/kenya-measles-vaccine/kenya-measles-vaccine.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-measles-vaccine/kenya-measles-vaccine.xlsx
+++ b/user-data/kenya-measles-vaccine/kenya-measles-vaccine.xlsx
@@ -316,13 +316,13 @@
     <t xml:space="preserve">Name: kenya-measles-vaccine</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Percentage of children 1 year-old immunized against measles, by county.</t>
+    <t xml:space="preserve">Description: Percentage of children 1 year-old immunised against measles, by county.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 34</t>
+    <t xml:space="preserve">Source: 36</t>
   </si>
   <si>
     <t xml:space="preserve"/>
